--- a/datasets/Brasileirao/standings/home_standings/season-2023/tabela-rodada29.xlsx
+++ b/datasets/Brasileirao/standings/home_standings/season-2023/tabela-rodada29.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AU21"/>
+  <dimension ref="A1:BD21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -601,70 +601,115 @@
       </c>
       <c r="AH1" s="1" t="inlineStr">
         <is>
+          <t>poss_casa</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>poss_fora</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>poss_total</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>sot_casa</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>sot_fora</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>sot_total</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>sh_casa</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>sh_fora</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>sh_total</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
           <t>xg_5casa</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AR1" s="1" t="inlineStr">
         <is>
           <t>xg_5fora</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AS1" s="1" t="inlineStr">
         <is>
           <t>xg_5total</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AT1" s="1" t="inlineStr">
         <is>
           <t>xga_5casa</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="AU1" s="1" t="inlineStr">
         <is>
           <t>xga_5fora</t>
         </is>
       </c>
-      <c r="AM1" s="1" t="inlineStr">
+      <c r="AV1" s="1" t="inlineStr">
         <is>
           <t>xga_5total</t>
         </is>
       </c>
-      <c r="AN1" s="1" t="inlineStr">
+      <c r="AW1" s="1" t="inlineStr">
         <is>
           <t>gf_5casa</t>
         </is>
       </c>
-      <c r="AO1" s="1" t="inlineStr">
+      <c r="AX1" s="1" t="inlineStr">
         <is>
           <t>gf_5fora</t>
         </is>
       </c>
-      <c r="AP1" s="1" t="inlineStr">
+      <c r="AY1" s="1" t="inlineStr">
         <is>
           <t>gf_5total</t>
         </is>
       </c>
-      <c r="AQ1" s="1" t="inlineStr">
+      <c r="AZ1" s="1" t="inlineStr">
         <is>
           <t>ga_5casa</t>
         </is>
       </c>
-      <c r="AR1" s="1" t="inlineStr">
+      <c r="BA1" s="1" t="inlineStr">
         <is>
           <t>ga_5fora</t>
         </is>
       </c>
-      <c r="AS1" s="1" t="inlineStr">
+      <c r="BB1" s="1" t="inlineStr">
         <is>
           <t>ga_5total</t>
         </is>
       </c>
-      <c r="AT1" s="1" t="inlineStr">
+      <c r="BC1" s="1" t="inlineStr">
         <is>
           <t>pts_casa</t>
         </is>
       </c>
-      <c r="AU1" s="1" t="inlineStr">
+      <c r="BD1" s="1" t="inlineStr">
         <is>
           <t>pts_fora</t>
         </is>
@@ -761,7 +806,7 @@
         <v>0.9939393939393939</v>
       </c>
       <c r="AD2" t="n">
-        <v>2.416558441558442</v>
+        <v>1.208279220779221</v>
       </c>
       <c r="AE2" t="n">
         <v>0.9226190476190477</v>
@@ -770,48 +815,75 @@
         <v>1.472727272727273</v>
       </c>
       <c r="AG2" t="n">
-        <v>2.39534632034632</v>
+        <v>1.19767316017316</v>
       </c>
       <c r="AH2" t="n">
+        <v>53.73809523809524</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>52.06060606060606</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>52.89935064935065</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>4.865771812080537</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>3.732876712328767</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>4.299324262204652</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>14.47651006711409</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>11.33561643835616</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>12.90606325273513</v>
+      </c>
+      <c r="AQ2" t="n">
         <v>1.520689655172414</v>
       </c>
-      <c r="AI2" t="n">
+      <c r="AR2" t="n">
         <v>1.065625</v>
       </c>
-      <c r="AJ2" t="n">
+      <c r="AS2" t="n">
         <v>1.293157327586207</v>
       </c>
-      <c r="AK2" t="n">
+      <c r="AT2" t="n">
         <v>0.8724137931034484</v>
       </c>
-      <c r="AL2" t="n">
+      <c r="AU2" t="n">
         <v>1.509375</v>
       </c>
-      <c r="AM2" t="n">
+      <c r="AV2" t="n">
         <v>1.190894396551724</v>
       </c>
-      <c r="AN2" t="n">
+      <c r="AW2" t="n">
         <v>1.508771929824561</v>
       </c>
-      <c r="AO2" t="n">
+      <c r="AX2" t="n">
         <v>0.8333333333333334</v>
       </c>
-      <c r="AP2" t="n">
+      <c r="AY2" t="n">
         <v>2.342105263157895</v>
       </c>
-      <c r="AQ2" t="n">
+      <c r="AZ2" t="n">
         <v>0.9122807017543859</v>
       </c>
-      <c r="AR2" t="n">
+      <c r="BA2" t="n">
         <v>1.5</v>
       </c>
-      <c r="AS2" t="n">
+      <c r="BB2" t="n">
         <v>2.412280701754386</v>
       </c>
-      <c r="AT2" t="n">
+      <c r="BC2" t="n">
         <v>37</v>
       </c>
-      <c r="AU2" t="n">
+      <c r="BD2" t="n">
         <v>8</v>
       </c>
     </row>
@@ -906,7 +978,7 @@
         <v>0.890625</v>
       </c>
       <c r="AD3" t="n">
-        <v>2.1484375</v>
+        <v>1.07421875</v>
       </c>
       <c r="AE3" t="n">
         <v>1.0078125</v>
@@ -915,48 +987,75 @@
         <v>1.296875</v>
       </c>
       <c r="AG3" t="n">
-        <v>2.3046875</v>
+        <v>1.15234375</v>
       </c>
       <c r="AH3" t="n">
+        <v>49.125</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>46.4296875</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>47.77734375</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>4.625</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>3.2265625</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>3.92578125</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>13.96875</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>10.875</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>12.421875</v>
+      </c>
+      <c r="AQ3" t="n">
         <v>1.286363636363636</v>
       </c>
-      <c r="AI3" t="n">
+      <c r="AR3" t="n">
         <v>0.975</v>
       </c>
-      <c r="AJ3" t="n">
+      <c r="AS3" t="n">
         <v>1.130681818181818</v>
       </c>
-      <c r="AK3" t="n">
+      <c r="AT3" t="n">
         <v>1.222727272727273</v>
       </c>
-      <c r="AL3" t="n">
+      <c r="AU3" t="n">
         <v>1.891666666666667</v>
       </c>
-      <c r="AM3" t="n">
+      <c r="AV3" t="n">
         <v>1.55719696969697</v>
       </c>
-      <c r="AN3" t="n">
+      <c r="AW3" t="n">
         <v>1.068181818181818</v>
       </c>
-      <c r="AO3" t="n">
+      <c r="AX3" t="n">
         <v>0.9318181818181818</v>
       </c>
-      <c r="AP3" t="n">
+      <c r="AY3" t="n">
         <v>2</v>
       </c>
-      <c r="AQ3" t="n">
+      <c r="AZ3" t="n">
         <v>1.181818181818182</v>
       </c>
-      <c r="AR3" t="n">
+      <c r="BA3" t="n">
         <v>1.181818181818182</v>
       </c>
-      <c r="AS3" t="n">
+      <c r="BB3" t="n">
         <v>2.363636363636364</v>
       </c>
-      <c r="AT3" t="n">
+      <c r="BC3" t="n">
         <v>35</v>
       </c>
-      <c r="AU3" t="n">
+      <c r="BD3" t="n">
         <v>24</v>
       </c>
     </row>
@@ -1051,7 +1150,7 @@
         <v>1.040816326530612</v>
       </c>
       <c r="AD4" t="n">
-        <v>2.730005515719801</v>
+        <v>1.365002757859901</v>
       </c>
       <c r="AE4" t="n">
         <v>0.8716216216216216</v>
@@ -1060,48 +1159,75 @@
         <v>1.238095238095238</v>
       </c>
       <c r="AG4" t="n">
-        <v>2.10971685971686</v>
+        <v>1.05485842985843</v>
       </c>
       <c r="AH4" t="n">
+        <v>55.67567567567568</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>50.42176870748299</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>53.04872219157933</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>5.534883720930233</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>3.625</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>4.579941860465116</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>15.8062015503876</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>10.7421875</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>13.2741945251938</v>
+      </c>
+      <c r="AQ4" t="n">
         <v>1.561904761904762</v>
       </c>
-      <c r="AI4" t="n">
+      <c r="AR4" t="n">
         <v>1.334615384615385</v>
       </c>
-      <c r="AJ4" t="n">
+      <c r="AS4" t="n">
         <v>1.448260073260073</v>
       </c>
-      <c r="AK4" t="n">
+      <c r="AT4" t="n">
         <v>0.9285714285714286</v>
       </c>
-      <c r="AL4" t="n">
+      <c r="AU4" t="n">
         <v>1.596153846153846</v>
       </c>
-      <c r="AM4" t="n">
+      <c r="AV4" t="n">
         <v>1.262362637362637</v>
       </c>
-      <c r="AN4" t="n">
+      <c r="AW4" t="n">
         <v>1.653061224489796</v>
       </c>
-      <c r="AO4" t="n">
+      <c r="AX4" t="n">
         <v>0.9629629629629629</v>
       </c>
-      <c r="AP4" t="n">
+      <c r="AY4" t="n">
         <v>2.616024187452759</v>
       </c>
-      <c r="AQ4" t="n">
+      <c r="AZ4" t="n">
         <v>1.040816326530612</v>
       </c>
-      <c r="AR4" t="n">
+      <c r="BA4" t="n">
         <v>1.277777777777778</v>
       </c>
-      <c r="AS4" t="n">
+      <c r="BB4" t="n">
         <v>2.31859410430839</v>
       </c>
-      <c r="AT4" t="n">
+      <c r="BC4" t="n">
         <v>35</v>
       </c>
-      <c r="AU4" t="n">
+      <c r="BD4" t="n">
         <v>12</v>
       </c>
     </row>
@@ -1196,7 +1322,7 @@
         <v>0.9819277108433735</v>
       </c>
       <c r="AD5" t="n">
-        <v>2.454981603058942</v>
+        <v>1.227490801529471</v>
       </c>
       <c r="AE5" t="n">
         <v>0.8203592814371258</v>
@@ -1205,48 +1331,75 @@
         <v>1.295180722891566</v>
       </c>
       <c r="AG5" t="n">
-        <v>2.115540004328692</v>
+        <v>1.057770002164346</v>
       </c>
       <c r="AH5" t="n">
+        <v>55.10179640718563</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>53.89759036144579</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>54.49969338431571</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>5.074324324324325</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>3.653061224489796</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>4.36369277440706</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>14.67567567567568</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>11.36734693877551</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>13.02151130722559</v>
+      </c>
+      <c r="AQ5" t="n">
         <v>1.343333333333333</v>
       </c>
-      <c r="AI5" t="n">
+      <c r="AR5" t="n">
         <v>1.009677419354839</v>
       </c>
-      <c r="AJ5" t="n">
+      <c r="AS5" t="n">
         <v>1.176505376344086</v>
       </c>
-      <c r="AK5" t="n">
+      <c r="AT5" t="n">
         <v>0.85</v>
       </c>
-      <c r="AL5" t="n">
+      <c r="AU5" t="n">
         <v>1.345161290322581</v>
       </c>
-      <c r="AM5" t="n">
+      <c r="AV5" t="n">
         <v>1.09758064516129</v>
       </c>
-      <c r="AN5" t="n">
+      <c r="AW5" t="n">
         <v>1.423728813559322</v>
       </c>
-      <c r="AO5" t="n">
+      <c r="AX5" t="n">
         <v>0.9137931034482759</v>
       </c>
-      <c r="AP5" t="n">
+      <c r="AY5" t="n">
         <v>2.337521917007598</v>
       </c>
-      <c r="AQ5" t="n">
+      <c r="AZ5" t="n">
         <v>0.8305084745762712</v>
       </c>
-      <c r="AR5" t="n">
+      <c r="BA5" t="n">
         <v>1.396551724137931</v>
       </c>
-      <c r="AS5" t="n">
+      <c r="BB5" t="n">
         <v>2.227060198714202</v>
       </c>
-      <c r="AT5" t="n">
+      <c r="BC5" t="n">
         <v>32</v>
       </c>
-      <c r="AU5" t="n">
+      <c r="BD5" t="n">
         <v>6</v>
       </c>
     </row>
@@ -1341,7 +1494,7 @@
         <v>0.8674698795180723</v>
       </c>
       <c r="AD6" t="n">
-        <v>2.412380059158791</v>
+        <v>1.206190029579395</v>
       </c>
       <c r="AE6" t="n">
         <v>0.8323353293413174</v>
@@ -1350,48 +1503,75 @@
         <v>1.301204819277108</v>
       </c>
       <c r="AG6" t="n">
-        <v>2.133540148618426</v>
+        <v>1.066770074309213</v>
       </c>
       <c r="AH6" t="n">
+        <v>53.49101796407186</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>48.13855421686747</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>50.81478609046967</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>5.378378378378378</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>3.272108843537415</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>4.325243610957896</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>15.52702702702703</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>10.58503401360544</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>13.05603052031623</v>
+      </c>
+      <c r="AQ6" t="n">
         <v>1.58125</v>
       </c>
-      <c r="AI6" t="n">
+      <c r="AR6" t="n">
         <v>0.8413793103448275</v>
       </c>
-      <c r="AJ6" t="n">
+      <c r="AS6" t="n">
         <v>1.211314655172414</v>
       </c>
-      <c r="AK6" t="n">
+      <c r="AT6" t="n">
         <v>0.78125</v>
       </c>
-      <c r="AL6" t="n">
+      <c r="AU6" t="n">
         <v>1.406896551724138</v>
       </c>
-      <c r="AM6" t="n">
+      <c r="AV6" t="n">
         <v>1.094073275862069</v>
       </c>
-      <c r="AN6" t="n">
+      <c r="AW6" t="n">
         <v>1.590163934426229</v>
       </c>
-      <c r="AO6" t="n">
+      <c r="AX6" t="n">
         <v>0.7857142857142857</v>
       </c>
-      <c r="AP6" t="n">
+      <c r="AY6" t="n">
         <v>2.375878220140515</v>
       </c>
-      <c r="AQ6" t="n">
+      <c r="AZ6" t="n">
         <v>0.8360655737704918</v>
       </c>
-      <c r="AR6" t="n">
+      <c r="BA6" t="n">
         <v>1.178571428571429</v>
       </c>
-      <c r="AS6" t="n">
+      <c r="BB6" t="n">
         <v>2.01463700234192</v>
       </c>
-      <c r="AT6" t="n">
+      <c r="BC6" t="n">
         <v>32</v>
       </c>
-      <c r="AU6" t="n">
+      <c r="BD6" t="n">
         <v>16</v>
       </c>
     </row>
@@ -1486,7 +1666,7 @@
         <v>1.140845070422535</v>
       </c>
       <c r="AD7" t="n">
-        <v>2.724178403755869</v>
+        <v>1.362089201877934</v>
       </c>
       <c r="AE7" t="n">
         <v>1</v>
@@ -1495,48 +1675,75 @@
         <v>1.394366197183099</v>
       </c>
       <c r="AG7" t="n">
-        <v>2.394366197183099</v>
+        <v>1.197183098591549</v>
       </c>
       <c r="AH7" t="n">
+        <v>50.76388888888889</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>50.70422535211268</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>50.73405712050078</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>4.875</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>4.436619718309859</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>4.65580985915493</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>15.81944444444444</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>13.42253521126761</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>14.62098982785603</v>
+      </c>
+      <c r="AQ7" t="n">
         <v>1.596</v>
       </c>
-      <c r="AI7" t="n">
+      <c r="AR7" t="n">
         <v>1.236363636363637</v>
       </c>
-      <c r="AJ7" t="n">
+      <c r="AS7" t="n">
         <v>1.416181818181818</v>
       </c>
-      <c r="AK7" t="n">
+      <c r="AT7" t="n">
         <v>1.152</v>
       </c>
-      <c r="AL7" t="n">
+      <c r="AU7" t="n">
         <v>1.668181818181819</v>
       </c>
-      <c r="AM7" t="n">
+      <c r="AV7" t="n">
         <v>1.41009090909091</v>
       </c>
-      <c r="AN7" t="n">
+      <c r="AW7" t="n">
         <v>1.6</v>
       </c>
-      <c r="AO7" t="n">
+      <c r="AX7" t="n">
         <v>1.090909090909091</v>
       </c>
-      <c r="AP7" t="n">
+      <c r="AY7" t="n">
         <v>2.690909090909091</v>
       </c>
-      <c r="AQ7" t="n">
+      <c r="AZ7" t="n">
         <v>1.08</v>
       </c>
-      <c r="AR7" t="n">
+      <c r="BA7" t="n">
         <v>1.681818181818182</v>
       </c>
-      <c r="AS7" t="n">
+      <c r="BB7" t="n">
         <v>2.761818181818182</v>
       </c>
-      <c r="AT7" t="n">
+      <c r="BC7" t="n">
         <v>31</v>
       </c>
-      <c r="AU7" t="n">
+      <c r="BD7" t="n">
         <v>21</v>
       </c>
     </row>
@@ -1631,7 +1838,7 @@
         <v>1.29940119760479</v>
       </c>
       <c r="AD8" t="n">
-        <v>3.184943366279489</v>
+        <v>1.592471683139745</v>
       </c>
       <c r="AE8" t="n">
         <v>0.8674698795180723</v>
@@ -1640,48 +1847,75 @@
         <v>1.035928143712575</v>
       </c>
       <c r="AG8" t="n">
-        <v>1.903398023230647</v>
+        <v>0.9516990116153237</v>
       </c>
       <c r="AH8" t="n">
+        <v>53.97590361445783</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>50.37951807228916</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>52.1777108433735</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>5.64625850340136</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>4.256756756756757</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>4.951507630079059</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>16.53061224489796</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>12.67567567567568</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>14.60314396028682</v>
+      </c>
+      <c r="AQ8" t="n">
         <v>1.978125</v>
       </c>
-      <c r="AI8" t="n">
+      <c r="AR8" t="n">
         <v>1.279310344827586</v>
       </c>
-      <c r="AJ8" t="n">
+      <c r="AS8" t="n">
         <v>1.628717672413793</v>
       </c>
-      <c r="AK8" t="n">
+      <c r="AT8" t="n">
         <v>0.940625</v>
       </c>
-      <c r="AL8" t="n">
+      <c r="AU8" t="n">
         <v>1.16551724137931</v>
       </c>
-      <c r="AM8" t="n">
+      <c r="AV8" t="n">
         <v>1.053071120689655</v>
       </c>
-      <c r="AN8" t="n">
+      <c r="AW8" t="n">
         <v>1.85</v>
       </c>
-      <c r="AO8" t="n">
+      <c r="AX8" t="n">
         <v>1.403508771929824</v>
       </c>
-      <c r="AP8" t="n">
+      <c r="AY8" t="n">
         <v>3.253508771929825</v>
       </c>
-      <c r="AQ8" t="n">
+      <c r="AZ8" t="n">
         <v>0.8333333333333334</v>
       </c>
-      <c r="AR8" t="n">
+      <c r="BA8" t="n">
         <v>1.192982456140351</v>
       </c>
-      <c r="AS8" t="n">
+      <c r="BB8" t="n">
         <v>2.026315789473684</v>
       </c>
-      <c r="AT8" t="n">
+      <c r="BC8" t="n">
         <v>29</v>
       </c>
-      <c r="AU8" t="n">
+      <c r="BD8" t="n">
         <v>21</v>
       </c>
     </row>
@@ -1776,7 +2010,7 @@
         <v>0.9777777777777777</v>
       </c>
       <c r="AD9" t="n">
-        <v>2.3</v>
+        <v>1.15</v>
       </c>
       <c r="AE9" t="n">
         <v>0.8555555555555555</v>
@@ -1785,48 +2019,75 @@
         <v>1.433333333333333</v>
       </c>
       <c r="AG9" t="n">
-        <v>2.288888888888889</v>
+        <v>1.144444444444444</v>
       </c>
       <c r="AH9" t="n">
+        <v>49.85555555555555</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>45.34444444444444</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>47.59999999999999</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>4.633333333333334</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>3.522222222222222</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>4.077777777777778</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>14.41111111111111</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>10.86666666666667</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>12.63888888888889</v>
+      </c>
+      <c r="AQ9" t="n">
         <v>1.516129032258064</v>
       </c>
-      <c r="AI9" t="n">
+      <c r="AR9" t="n">
         <v>1.068965517241379</v>
       </c>
-      <c r="AJ9" t="n">
+      <c r="AS9" t="n">
         <v>1.292547274749722</v>
       </c>
-      <c r="AK9" t="n">
+      <c r="AT9" t="n">
         <v>1.216129032258065</v>
       </c>
-      <c r="AL9" t="n">
+      <c r="AU9" t="n">
         <v>1.610344827586207</v>
       </c>
-      <c r="AM9" t="n">
+      <c r="AV9" t="n">
         <v>1.413236929922136</v>
       </c>
-      <c r="AN9" t="n">
+      <c r="AW9" t="n">
         <v>1.612903225806452</v>
       </c>
-      <c r="AO9" t="n">
+      <c r="AX9" t="n">
         <v>0.8275862068965517</v>
       </c>
-      <c r="AP9" t="n">
+      <c r="AY9" t="n">
         <v>2.440489432703003</v>
       </c>
-      <c r="AQ9" t="n">
+      <c r="AZ9" t="n">
         <v>1.064516129032258</v>
       </c>
-      <c r="AR9" t="n">
+      <c r="BA9" t="n">
         <v>1.620689655172414</v>
       </c>
-      <c r="AS9" t="n">
+      <c r="BB9" t="n">
         <v>2.685205784204672</v>
       </c>
-      <c r="AT9" t="n">
+      <c r="BC9" t="n">
         <v>28</v>
       </c>
-      <c r="AU9" t="n">
+      <c r="BD9" t="n">
         <v>14</v>
       </c>
     </row>
@@ -1921,7 +2182,7 @@
         <v>1.386904761904762</v>
       </c>
       <c r="AD10" t="n">
-        <v>3.192965367965368</v>
+        <v>1.596482683982684</v>
       </c>
       <c r="AE10" t="n">
         <v>0.8666666666666667</v>
@@ -1930,48 +2191,75 @@
         <v>1.226190476190476</v>
       </c>
       <c r="AG10" t="n">
-        <v>2.092857142857143</v>
+        <v>1.046428571428571</v>
       </c>
       <c r="AH10" t="n">
+        <v>58.55151515151515</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>55.41666666666666</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>56.98409090909091</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>5.780821917808219</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>4.449664429530201</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>5.11524317366921</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>16.57534246575343</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>12.67114093959731</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>14.62324170267537</v>
+      </c>
+      <c r="AQ10" t="n">
         <v>2.034375</v>
       </c>
-      <c r="AI10" t="n">
+      <c r="AR10" t="n">
         <v>1.7</v>
       </c>
-      <c r="AJ10" t="n">
+      <c r="AS10" t="n">
         <v>1.8671875</v>
       </c>
-      <c r="AK10" t="n">
+      <c r="AT10" t="n">
         <v>0.8875000000000001</v>
       </c>
-      <c r="AL10" t="n">
+      <c r="AU10" t="n">
         <v>1.151724137931034</v>
       </c>
-      <c r="AM10" t="n">
+      <c r="AV10" t="n">
         <v>1.019612068965517</v>
       </c>
-      <c r="AN10" t="n">
+      <c r="AW10" t="n">
         <v>1.847457627118644</v>
       </c>
-      <c r="AO10" t="n">
+      <c r="AX10" t="n">
         <v>1.310344827586207</v>
       </c>
-      <c r="AP10" t="n">
+      <c r="AY10" t="n">
         <v>3.157802454704851</v>
       </c>
-      <c r="AQ10" t="n">
+      <c r="AZ10" t="n">
         <v>0.9152542372881356</v>
       </c>
-      <c r="AR10" t="n">
+      <c r="BA10" t="n">
         <v>1.206896551724138</v>
       </c>
-      <c r="AS10" t="n">
+      <c r="BB10" t="n">
         <v>2.122150789012274</v>
       </c>
-      <c r="AT10" t="n">
+      <c r="BC10" t="n">
         <v>25</v>
       </c>
-      <c r="AU10" t="n">
+      <c r="BD10" t="n">
         <v>25</v>
       </c>
     </row>
@@ -2066,7 +2354,7 @@
         <v>0.8783783783783784</v>
       </c>
       <c r="AD11" t="n">
-        <v>2.470215113072256</v>
+        <v>1.235107556536128</v>
       </c>
       <c r="AE11" t="n">
         <v>0.7959183673469388</v>
@@ -2075,48 +2363,75 @@
         <v>1.162162162162162</v>
       </c>
       <c r="AG11" t="n">
-        <v>1.958080529509101</v>
+        <v>0.9790402647545504</v>
       </c>
       <c r="AH11" t="n">
+        <v>52.77551020408163</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>49.39189189189189</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>51.08370104798676</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>4.90625</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>3.612403100775194</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>4.259326550387597</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>14.21875</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>11.24806201550388</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>12.73340600775194</v>
+      </c>
+      <c r="AQ11" t="n">
         <v>1.821212121212121</v>
       </c>
-      <c r="AI11" t="n">
+      <c r="AR11" t="n">
         <v>1.128571428571429</v>
       </c>
-      <c r="AJ11" t="n">
+      <c r="AS11" t="n">
         <v>1.474891774891775</v>
       </c>
-      <c r="AK11" t="n">
+      <c r="AT11" t="n">
         <v>1.178787878787879</v>
       </c>
-      <c r="AL11" t="n">
+      <c r="AU11" t="n">
         <v>1.246428571428572</v>
       </c>
-      <c r="AM11" t="n">
+      <c r="AV11" t="n">
         <v>1.212608225108225</v>
       </c>
-      <c r="AN11" t="n">
+      <c r="AW11" t="n">
         <v>1.703703703703704</v>
       </c>
-      <c r="AO11" t="n">
+      <c r="AX11" t="n">
         <v>0.8775510204081632</v>
       </c>
-      <c r="AP11" t="n">
+      <c r="AY11" t="n">
         <v>2.581254724111867</v>
       </c>
-      <c r="AQ11" t="n">
+      <c r="AZ11" t="n">
         <v>0.8888888888888888</v>
       </c>
-      <c r="AR11" t="n">
+      <c r="BA11" t="n">
         <v>1.061224489795918</v>
       </c>
-      <c r="AS11" t="n">
+      <c r="BB11" t="n">
         <v>1.950113378684807</v>
       </c>
-      <c r="AT11" t="n">
+      <c r="BC11" t="n">
         <v>24</v>
       </c>
-      <c r="AU11" t="n">
+      <c r="BD11" t="n">
         <v>14</v>
       </c>
     </row>
@@ -2211,7 +2526,7 @@
         <v>0.9880239520958084</v>
       </c>
       <c r="AD12" t="n">
-        <v>2.457903470168098</v>
+        <v>1.228951735084049</v>
       </c>
       <c r="AE12" t="n">
         <v>0.7710843373493976</v>
@@ -2220,48 +2535,75 @@
         <v>1.179640718562874</v>
       </c>
       <c r="AG12" t="n">
-        <v>1.950725055912272</v>
+        <v>0.975362527956136</v>
       </c>
       <c r="AH12" t="n">
+        <v>54.66265060240964</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>51.55688622754491</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>53.10976841497727</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>4.727891156462585</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>3.243243243243243</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>3.985567199852914</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>14.02721088435374</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>9.831081081081081</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>11.92914598271741</v>
+      </c>
+      <c r="AQ12" t="n">
         <v>1.41</v>
       </c>
-      <c r="AI12" t="n">
+      <c r="AR12" t="n">
         <v>0.8935483870967742</v>
       </c>
-      <c r="AJ12" t="n">
+      <c r="AS12" t="n">
         <v>1.151774193548387</v>
       </c>
-      <c r="AK12" t="n">
+      <c r="AT12" t="n">
         <v>0.9466666666666667</v>
       </c>
-      <c r="AL12" t="n">
+      <c r="AU12" t="n">
         <v>1.432258064516129</v>
       </c>
-      <c r="AM12" t="n">
+      <c r="AV12" t="n">
         <v>1.189462365591398</v>
       </c>
-      <c r="AN12" t="n">
+      <c r="AW12" t="n">
         <v>1.508771929824561</v>
       </c>
-      <c r="AO12" t="n">
+      <c r="AX12" t="n">
         <v>0.95</v>
       </c>
-      <c r="AP12" t="n">
+      <c r="AY12" t="n">
         <v>2.458771929824561</v>
       </c>
-      <c r="AQ12" t="n">
+      <c r="AZ12" t="n">
         <v>0.7894736842105263</v>
       </c>
-      <c r="AR12" t="n">
+      <c r="BA12" t="n">
         <v>1.45</v>
       </c>
-      <c r="AS12" t="n">
+      <c r="BB12" t="n">
         <v>2.239473684210526</v>
       </c>
-      <c r="AT12" t="n">
+      <c r="BC12" t="n">
         <v>23</v>
       </c>
-      <c r="AU12" t="n">
+      <c r="BD12" t="n">
         <v>13</v>
       </c>
     </row>
@@ -2356,7 +2698,7 @@
         <v>0.8493975903614458</v>
       </c>
       <c r="AD13" t="n">
-        <v>2.579936512517135</v>
+        <v>1.289968256258567</v>
       </c>
       <c r="AE13" t="n">
         <v>0.874251497005988</v>
@@ -2365,48 +2707,75 @@
         <v>1.325301204819277</v>
       </c>
       <c r="AG13" t="n">
-        <v>2.199552701825265</v>
+        <v>1.099776350912633</v>
       </c>
       <c r="AH13" t="n">
+        <v>52.35928143712575</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>50.4277108433735</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>51.39349614024962</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>5.047297297297297</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>3.27891156462585</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>4.163104430961574</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>14.30405405405405</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>10.36054421768707</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>12.33229913587056</v>
+      </c>
+      <c r="AQ13" t="n">
         <v>1.72</v>
       </c>
-      <c r="AI13" t="n">
+      <c r="AR13" t="n">
         <v>0.9548387096774194</v>
       </c>
-      <c r="AJ13" t="n">
+      <c r="AS13" t="n">
         <v>1.33741935483871</v>
       </c>
-      <c r="AK13" t="n">
+      <c r="AT13" t="n">
         <v>0.9433333333333334</v>
       </c>
-      <c r="AL13" t="n">
+      <c r="AU13" t="n">
         <v>1.445161290322581</v>
       </c>
-      <c r="AM13" t="n">
+      <c r="AV13" t="n">
         <v>1.194247311827957</v>
       </c>
-      <c r="AN13" t="n">
+      <c r="AW13" t="n">
         <v>1.793103448275862</v>
       </c>
-      <c r="AO13" t="n">
+      <c r="AX13" t="n">
         <v>0.847457627118644</v>
       </c>
-      <c r="AP13" t="n">
+      <c r="AY13" t="n">
         <v>2.640561075394506</v>
       </c>
-      <c r="AQ13" t="n">
+      <c r="AZ13" t="n">
         <v>0.8793103448275862</v>
       </c>
-      <c r="AR13" t="n">
+      <c r="BA13" t="n">
         <v>1.406779661016949</v>
       </c>
-      <c r="AS13" t="n">
+      <c r="BB13" t="n">
         <v>2.286090005844535</v>
       </c>
-      <c r="AT13" t="n">
+      <c r="BC13" t="n">
         <v>23</v>
       </c>
-      <c r="AU13" t="n">
+      <c r="BD13" t="n">
         <v>10</v>
       </c>
     </row>
@@ -2501,7 +2870,7 @@
         <v>0.8909090909090909</v>
       </c>
       <c r="AD14" t="n">
-        <v>2.377147623019183</v>
+        <v>1.188573811509591</v>
       </c>
       <c r="AE14" t="n">
         <v>1.055045871559633</v>
@@ -2510,48 +2879,75 @@
         <v>1.527272727272727</v>
       </c>
       <c r="AG14" t="n">
-        <v>2.58231859883236</v>
+        <v>1.29115929941618</v>
       </c>
       <c r="AH14" t="n">
+        <v>50.22935779816514</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>45.86363636363637</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>48.04649708090075</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>4.981651376146789</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>3.554545454545455</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>4.268098415346122</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>14.73394495412844</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>11.53636363636364</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>13.13515429524604</v>
+      </c>
+      <c r="AQ14" t="n">
         <v>1.514285714285714</v>
       </c>
-      <c r="AI14" t="n">
+      <c r="AR14" t="n">
         <v>1.192307692307692</v>
       </c>
-      <c r="AJ14" t="n">
+      <c r="AS14" t="n">
         <v>1.353296703296703</v>
       </c>
-      <c r="AK14" t="n">
+      <c r="AT14" t="n">
         <v>1.109523809523809</v>
       </c>
-      <c r="AL14" t="n">
+      <c r="AU14" t="n">
         <v>1.661538461538462</v>
       </c>
-      <c r="AM14" t="n">
+      <c r="AV14" t="n">
         <v>1.385531135531135</v>
       </c>
-      <c r="AN14" t="n">
+      <c r="AW14" t="n">
         <v>1.416666666666667</v>
       </c>
-      <c r="AO14" t="n">
+      <c r="AX14" t="n">
         <v>1.102564102564103</v>
       </c>
-      <c r="AP14" t="n">
+      <c r="AY14" t="n">
         <v>2.519230769230769</v>
       </c>
-      <c r="AQ14" t="n">
+      <c r="AZ14" t="n">
         <v>0.7777777777777778</v>
       </c>
-      <c r="AR14" t="n">
+      <c r="BA14" t="n">
         <v>1.615384615384615</v>
       </c>
-      <c r="AS14" t="n">
+      <c r="BB14" t="n">
         <v>2.393162393162393</v>
       </c>
-      <c r="AT14" t="n">
+      <c r="BC14" t="n">
         <v>22</v>
       </c>
-      <c r="AU14" t="n">
+      <c r="BD14" t="n">
         <v>12</v>
       </c>
     </row>
@@ -2646,7 +3042,7 @@
         <v>1.228915662650602</v>
       </c>
       <c r="AD15" t="n">
-        <v>2.945783132530121</v>
+        <v>1.47289156626506</v>
       </c>
       <c r="AE15" t="n">
         <v>0.9759036144578314</v>
@@ -2655,48 +3051,75 @@
         <v>1.295180722891566</v>
       </c>
       <c r="AG15" t="n">
-        <v>2.271084337349397</v>
+        <v>1.135542168674699</v>
       </c>
       <c r="AH15" t="n">
+        <v>57.06024096385542</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>53.4277108433735</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>55.24397590361446</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>5.197278911564626</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>4.108843537414966</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>4.653061224489797</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>15.76190476190476</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>12.95238095238095</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>14.35714285714286</v>
+      </c>
+      <c r="AQ15" t="n">
         <v>1.79</v>
       </c>
-      <c r="AI15" t="n">
+      <c r="AR15" t="n">
         <v>1.190322580645161</v>
       </c>
-      <c r="AJ15" t="n">
+      <c r="AS15" t="n">
         <v>1.490161290322581</v>
       </c>
-      <c r="AK15" t="n">
+      <c r="AT15" t="n">
         <v>0.86</v>
       </c>
-      <c r="AL15" t="n">
+      <c r="AU15" t="n">
         <v>1.103225806451613</v>
       </c>
-      <c r="AM15" t="n">
+      <c r="AV15" t="n">
         <v>0.9816129032258065</v>
       </c>
-      <c r="AN15" t="n">
+      <c r="AW15" t="n">
         <v>1.75</v>
       </c>
-      <c r="AO15" t="n">
+      <c r="AX15" t="n">
         <v>1.283333333333333</v>
       </c>
-      <c r="AP15" t="n">
+      <c r="AY15" t="n">
         <v>3.033333333333333</v>
       </c>
-      <c r="AQ15" t="n">
+      <c r="AZ15" t="n">
         <v>0.9464285714285714</v>
       </c>
-      <c r="AR15" t="n">
+      <c r="BA15" t="n">
         <v>1.433333333333333</v>
       </c>
-      <c r="AS15" t="n">
+      <c r="BB15" t="n">
         <v>2.379761904761905</v>
       </c>
-      <c r="AT15" t="n">
+      <c r="BC15" t="n">
         <v>21</v>
       </c>
-      <c r="AU15" t="n">
+      <c r="BD15" t="n">
         <v>25</v>
       </c>
     </row>
@@ -2791,7 +3214,7 @@
         <v>0.8532110091743119</v>
       </c>
       <c r="AD16" t="n">
-        <v>1.953211009174312</v>
+        <v>0.976605504587156</v>
       </c>
       <c r="AE16" t="n">
         <v>1.163636363636364</v>
@@ -2800,48 +3223,75 @@
         <v>1.495412844036697</v>
       </c>
       <c r="AG16" t="n">
-        <v>2.659049207673061</v>
+        <v>1.32952460383653</v>
       </c>
       <c r="AH16" t="n">
+        <v>49.7</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>45.84403669724771</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>47.77201834862386</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>4.494505494505495</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>3.311111111111111</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>3.902808302808303</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>13.95604395604396</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>10.96666666666667</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>12.46135531135531</v>
+      </c>
+      <c r="AQ16" t="n">
         <v>1.461111111111111</v>
       </c>
-      <c r="AI16" t="n">
+      <c r="AR16" t="n">
         <v>1.066666666666667</v>
       </c>
-      <c r="AJ16" t="n">
+      <c r="AS16" t="n">
         <v>1.263888888888889</v>
       </c>
-      <c r="AK16" t="n">
+      <c r="AT16" t="n">
         <v>1.272222222222222</v>
       </c>
-      <c r="AL16" t="n">
+      <c r="AU16" t="n">
         <v>1.54</v>
       </c>
-      <c r="AM16" t="n">
+      <c r="AV16" t="n">
         <v>1.406111111111111</v>
       </c>
-      <c r="AN16" t="n">
+      <c r="AW16" t="n">
         <v>1.153846153846154</v>
       </c>
-      <c r="AO16" t="n">
+      <c r="AX16" t="n">
         <v>1</v>
       </c>
-      <c r="AP16" t="n">
+      <c r="AY16" t="n">
         <v>2.153846153846154</v>
       </c>
-      <c r="AQ16" t="n">
+      <c r="AZ16" t="n">
         <v>0.8461538461538461</v>
       </c>
-      <c r="AR16" t="n">
+      <c r="BA16" t="n">
         <v>1.222222222222222</v>
       </c>
-      <c r="AS16" t="n">
+      <c r="BB16" t="n">
         <v>2.068376068376069</v>
       </c>
-      <c r="AT16" t="n">
+      <c r="BC16" t="n">
         <v>20</v>
       </c>
-      <c r="AU16" t="n">
+      <c r="BD16" t="n">
         <v>10</v>
       </c>
     </row>
@@ -2936,7 +3386,7 @@
         <v>0.8076923076923077</v>
       </c>
       <c r="AD17" t="n">
-        <v>1.807692307692308</v>
+        <v>0.9038461538461539</v>
       </c>
       <c r="AE17" t="n">
         <v>0.9811320754716981</v>
@@ -2945,48 +3395,75 @@
         <v>1.134615384615385</v>
       </c>
       <c r="AG17" t="n">
-        <v>2.115747460087083</v>
+        <v>1.057873730043541</v>
       </c>
       <c r="AH17" t="n">
+        <v>47.75471698113208</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>42.55769230769231</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>45.15620464441219</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>4.018867924528302</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>2.865384615384615</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>3.442126269956459</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>14.13207547169811</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>11.81603773584906</v>
+      </c>
+      <c r="AQ17" t="n">
         <v>1.477777777777778</v>
       </c>
-      <c r="AI17" t="n">
+      <c r="AR17" t="n">
         <v>0.5266666666666667</v>
       </c>
-      <c r="AJ17" t="n">
+      <c r="AS17" t="n">
         <v>1.002222222222222</v>
       </c>
-      <c r="AK17" t="n">
+      <c r="AT17" t="n">
         <v>1.266666666666667</v>
       </c>
-      <c r="AL17" t="n">
+      <c r="AU17" t="n">
         <v>1.513333333333333</v>
       </c>
-      <c r="AM17" t="n">
+      <c r="AV17" t="n">
         <v>1.39</v>
       </c>
-      <c r="AN17" t="n">
+      <c r="AW17" t="n">
         <v>1</v>
       </c>
-      <c r="AO17" t="n">
+      <c r="AX17" t="n">
         <v>0.8666666666666667</v>
       </c>
-      <c r="AP17" t="n">
+      <c r="AY17" t="n">
         <v>1.866666666666667</v>
       </c>
-      <c r="AQ17" t="n">
+      <c r="AZ17" t="n">
         <v>0.7222222222222222</v>
       </c>
-      <c r="AR17" t="n">
+      <c r="BA17" t="n">
         <v>1.266666666666667</v>
       </c>
-      <c r="AS17" t="n">
+      <c r="BB17" t="n">
         <v>1.988888888888889</v>
       </c>
-      <c r="AT17" t="n">
+      <c r="BC17" t="n">
         <v>18</v>
       </c>
-      <c r="AU17" t="n">
+      <c r="BD17" t="n">
         <v>19</v>
       </c>
     </row>
@@ -3081,7 +3558,7 @@
         <v>0.967032967032967</v>
       </c>
       <c r="AD18" t="n">
-        <v>2.178144078144078</v>
+        <v>1.089072039072039</v>
       </c>
       <c r="AE18" t="n">
         <v>1.222222222222222</v>
@@ -3090,48 +3567,75 @@
         <v>1.78021978021978</v>
       </c>
       <c r="AG18" t="n">
-        <v>3.002442002442002</v>
+        <v>1.501221001221001</v>
       </c>
       <c r="AH18" t="n">
+        <v>43.67777777777778</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>40.92307692307692</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>42.30042735042735</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>3.492957746478873</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>3.305555555555555</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>3.399256651017214</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>12.54929577464789</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>11.01388888888889</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>11.78159233176839</v>
+      </c>
+      <c r="AQ18" t="n">
         <v>1.033333333333333</v>
       </c>
-      <c r="AI18" t="n">
+      <c r="AR18" t="n">
         <v>1.256521739130435</v>
       </c>
-      <c r="AJ18" t="n">
+      <c r="AS18" t="n">
         <v>1.144927536231884</v>
       </c>
-      <c r="AK18" t="n">
+      <c r="AT18" t="n">
         <v>1.308333333333333</v>
       </c>
-      <c r="AL18" t="n">
+      <c r="AU18" t="n">
         <v>1.973913043478261</v>
       </c>
-      <c r="AM18" t="n">
+      <c r="AV18" t="n">
         <v>1.641123188405797</v>
       </c>
-      <c r="AN18" t="n">
+      <c r="AW18" t="n">
         <v>1.225806451612903</v>
       </c>
-      <c r="AO18" t="n">
+      <c r="AX18" t="n">
         <v>1.4</v>
       </c>
-      <c r="AP18" t="n">
+      <c r="AY18" t="n">
         <v>2.625806451612903</v>
       </c>
-      <c r="AQ18" t="n">
+      <c r="AZ18" t="n">
         <v>1.516129032258065</v>
       </c>
-      <c r="AR18" t="n">
+      <c r="BA18" t="n">
         <v>2.3</v>
       </c>
-      <c r="AS18" t="n">
+      <c r="BB18" t="n">
         <v>3.816129032258064</v>
       </c>
-      <c r="AT18" t="n">
+      <c r="BC18" t="n">
         <v>18</v>
       </c>
-      <c r="AU18" t="n">
+      <c r="BD18" t="n">
         <v>13</v>
       </c>
     </row>
@@ -3226,7 +3730,7 @@
         <v>0.8990825688073395</v>
       </c>
       <c r="AD19" t="n">
-        <v>2.080900750625521</v>
+        <v>1.040450375312761</v>
       </c>
       <c r="AE19" t="n">
         <v>0.8727272727272727</v>
@@ -3235,48 +3739,75 @@
         <v>1.201834862385321</v>
       </c>
       <c r="AG19" t="n">
-        <v>2.074562135112594</v>
+        <v>1.037281067556297</v>
       </c>
       <c r="AH19" t="n">
+        <v>54.5</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>49.60550458715596</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>52.05275229357798</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>4.934065934065934</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>3.622222222222222</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>4.278144078144078</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>15.57142857142857</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>11.82222222222222</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>13.6968253968254</v>
+      </c>
+      <c r="AQ19" t="n">
         <v>1.2</v>
       </c>
-      <c r="AI19" t="n">
+      <c r="AR19" t="n">
         <v>1.044444444444445</v>
       </c>
-      <c r="AJ19" t="n">
+      <c r="AS19" t="n">
         <v>1.122222222222222</v>
       </c>
-      <c r="AK19" t="n">
+      <c r="AT19" t="n">
         <v>0.9399999999999998</v>
       </c>
-      <c r="AL19" t="n">
+      <c r="AU19" t="n">
         <v>1.377777777777778</v>
       </c>
-      <c r="AM19" t="n">
+      <c r="AV19" t="n">
         <v>1.158888888888889</v>
       </c>
-      <c r="AN19" t="n">
+      <c r="AW19" t="n">
         <v>1.425</v>
       </c>
-      <c r="AO19" t="n">
+      <c r="AX19" t="n">
         <v>0.8</v>
       </c>
-      <c r="AP19" t="n">
+      <c r="AY19" t="n">
         <v>2.225</v>
       </c>
-      <c r="AQ19" t="n">
+      <c r="AZ19" t="n">
         <v>0.85</v>
       </c>
-      <c r="AR19" t="n">
+      <c r="BA19" t="n">
         <v>1.085714285714286</v>
       </c>
-      <c r="AS19" t="n">
+      <c r="BB19" t="n">
         <v>1.935714285714285</v>
       </c>
-      <c r="AT19" t="n">
+      <c r="BC19" t="n">
         <v>17</v>
       </c>
-      <c r="AU19" t="n">
+      <c r="BD19" t="n">
         <v>20</v>
       </c>
     </row>
@@ -3371,7 +3902,7 @@
         <v>0.8131868131868132</v>
       </c>
       <c r="AD20" t="n">
-        <v>1.846520146520147</v>
+        <v>0.9232600732600733</v>
       </c>
       <c r="AE20" t="n">
         <v>1.011111111111111</v>
@@ -3380,48 +3911,75 @@
         <v>1.659340659340659</v>
       </c>
       <c r="AG20" t="n">
-        <v>2.670451770451771</v>
+        <v>1.335225885225885</v>
       </c>
       <c r="AH20" t="n">
+        <v>47.73333333333333</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>43.78021978021978</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>45.75677655677656</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>4.211111111111111</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>3.549450549450549</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>3.88028083028083</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>14.68888888888889</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>11.36263736263736</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>13.02576312576313</v>
+      </c>
+      <c r="AQ20" t="n">
         <v>1.878571428571429</v>
       </c>
-      <c r="AI20" t="n">
+      <c r="AR20" t="n">
         <v>1.231578947368421</v>
       </c>
-      <c r="AJ20" t="n">
+      <c r="AS20" t="n">
         <v>1.555075187969925</v>
       </c>
-      <c r="AK20" t="n">
+      <c r="AT20" t="n">
         <v>1.121428571428571</v>
       </c>
-      <c r="AL20" t="n">
+      <c r="AU20" t="n">
         <v>1.447368421052632</v>
       </c>
-      <c r="AM20" t="n">
+      <c r="AV20" t="n">
         <v>1.284398496240601</v>
       </c>
-      <c r="AN20" t="n">
+      <c r="AW20" t="n">
         <v>1.111111111111111</v>
       </c>
-      <c r="AO20" t="n">
+      <c r="AX20" t="n">
         <v>0.8529411764705882</v>
       </c>
-      <c r="AP20" t="n">
+      <c r="AY20" t="n">
         <v>1.964052287581699</v>
       </c>
-      <c r="AQ20" t="n">
+      <c r="AZ20" t="n">
         <v>0.7777777777777778</v>
       </c>
-      <c r="AR20" t="n">
+      <c r="BA20" t="n">
         <v>1.617647058823529</v>
       </c>
-      <c r="AS20" t="n">
+      <c r="BB20" t="n">
         <v>2.395424836601307</v>
       </c>
-      <c r="AT20" t="n">
+      <c r="BC20" t="n">
         <v>13</v>
       </c>
-      <c r="AU20" t="n">
+      <c r="BD20" t="n">
         <v>6</v>
       </c>
     </row>
@@ -3516,7 +4074,7 @@
         <v>0.8818181818181818</v>
       </c>
       <c r="AD21" t="n">
-        <v>1.955212677231026</v>
+        <v>0.9776063386155129</v>
       </c>
       <c r="AE21" t="n">
         <v>0.9724770642201835</v>
@@ -3525,48 +4083,75 @@
         <v>1.854545454545454</v>
       </c>
       <c r="AG21" t="n">
-        <v>2.827022518765638</v>
+        <v>1.413511259382819</v>
       </c>
       <c r="AH21" t="n">
+        <v>48.08256880733945</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>45.77272727272727</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>46.92764804003336</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>3.855555555555556</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>3.967032967032967</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>3.911294261294262</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>12.43333333333333</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>11.02197802197802</v>
+      </c>
+      <c r="AP21" t="n">
+        <v>11.72765567765568</v>
+      </c>
+      <c r="AQ21" t="n">
         <v>1.0125</v>
       </c>
-      <c r="AI21" t="n">
+      <c r="AR21" t="n">
         <v>0.7941176470588235</v>
       </c>
-      <c r="AJ21" t="n">
+      <c r="AS21" t="n">
         <v>0.9033088235294118</v>
       </c>
-      <c r="AK21" t="n">
+      <c r="AT21" t="n">
         <v>1.075</v>
       </c>
-      <c r="AL21" t="n">
+      <c r="AU21" t="n">
         <v>1.794117647058824</v>
       </c>
-      <c r="AM21" t="n">
+      <c r="AV21" t="n">
         <v>1.434558823529412</v>
       </c>
-      <c r="AN21" t="n">
+      <c r="AW21" t="n">
         <v>1.108108108108108</v>
       </c>
-      <c r="AO21" t="n">
+      <c r="AX21" t="n">
         <v>0.8947368421052632</v>
       </c>
-      <c r="AP21" t="n">
+      <c r="AY21" t="n">
         <v>2.002844950213371</v>
       </c>
-      <c r="AQ21" t="n">
+      <c r="AZ21" t="n">
         <v>0.972972972972973</v>
       </c>
-      <c r="AR21" t="n">
+      <c r="BA21" t="n">
         <v>1.763157894736842</v>
       </c>
-      <c r="AS21" t="n">
+      <c r="BB21" t="n">
         <v>2.736130867709815</v>
       </c>
-      <c r="AT21" t="n">
+      <c r="BC21" t="n">
         <v>12</v>
       </c>
-      <c r="AU21" t="n">
+      <c r="BD21" t="n">
         <v>8</v>
       </c>
     </row>
